--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +509,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -583,6 +591,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,6 +631,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -661,6 +671,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,6 +713,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -741,6 +753,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,6 +793,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +833,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,6 +873,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,6 +913,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -936,6 +953,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -975,6 +993,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1014,6 +1033,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1053,6 +1073,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,6 +1113,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,6 +1153,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,6 +1193,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1209,6 +1233,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1248,6 +1273,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1287,6 +1313,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,6 +1353,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1365,6 +1393,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,6 +1433,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1443,6 +1473,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1482,6 +1513,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1521,6 +1553,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,6 +1593,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,6 +1633,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,6 +1673,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1677,6 +1713,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1716,6 +1753,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1755,6 +1793,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1794,6 +1833,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,6 +1873,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,6 +1913,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1911,6 +1953,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,6 +1993,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1989,6 +2033,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2028,6 +2073,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2067,6 +2113,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,6 +2153,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2145,6 +2193,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2184,6 +2233,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2223,6 +2273,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,6 +2313,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2301,6 +2353,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2340,6 +2393,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2379,6 +2433,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,6 +2473,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2457,6 +2513,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2496,6 +2553,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2535,6 +2593,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2574,6 +2633,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2613,6 +2673,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2652,6 +2713,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2691,6 +2753,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2730,6 +2793,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2769,6 +2833,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2808,6 +2873,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2847,6 +2913,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2886,6 +2953,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2925,6 +2993,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2964,6 +3033,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3003,6 +3073,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3030,16 +3101,17 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,14 +3145,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3108,18 +3177,15 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3151,12 +3217,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3192,6 +3257,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3219,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3227,6 +3293,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3254,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3262,6 +3329,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3289,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3297,6 +3365,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3324,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3332,6 +3401,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3359,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3367,6 +3437,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3394,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3402,6 +3473,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3437,6 +3509,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3472,6 +3545,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3507,6 +3581,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3542,6 +3617,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3577,6 +3653,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3612,6 +3689,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3647,6 +3725,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3682,6 +3761,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3717,6 +3797,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3752,6 +3833,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3787,6 +3869,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3822,6 +3905,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3857,6 +3941,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3892,6 +3977,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3927,6 +4013,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3962,6 +4049,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3997,6 +4085,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4032,6 +4121,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4067,6 +4157,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4102,6 +4193,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4137,6 +4229,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4172,6 +4265,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4207,6 +4301,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4242,6 +4337,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4277,6 +4373,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4312,6 +4409,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4347,6 +4445,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4382,6 +4481,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.630000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="C2" t="n">
-        <v>9.630000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="D2" t="n">
-        <v>9.630000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="E2" t="n">
-        <v>9.630000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="F2" t="n">
-        <v>4935</v>
+        <v>19575.98</v>
       </c>
       <c r="G2" t="n">
-        <v>-551605.7769604432</v>
+        <v>66755.75173955667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.632</v>
+        <v>9.75</v>
       </c>
       <c r="C3" t="n">
-        <v>9.622999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="D3" t="n">
-        <v>9.632</v>
+        <v>9.75</v>
       </c>
       <c r="E3" t="n">
-        <v>9.622999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="F3" t="n">
-        <v>220126.4814</v>
+        <v>4936</v>
       </c>
       <c r="G3" t="n">
-        <v>-771732.2583604432</v>
+        <v>66755.75173955667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.630000000000001</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.68</v>
+        <v>9.75</v>
       </c>
       <c r="C4" t="n">
-        <v>9.68</v>
+        <v>9.84</v>
       </c>
       <c r="D4" t="n">
-        <v>9.68</v>
+        <v>9.84</v>
       </c>
       <c r="E4" t="n">
-        <v>9.68</v>
+        <v>9.75</v>
       </c>
       <c r="F4" t="n">
-        <v>52</v>
+        <v>17482.66</v>
       </c>
       <c r="G4" t="n">
-        <v>-771680.2583604432</v>
+        <v>84238.41173955667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,11 +535,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -556,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.622999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="C5" t="n">
-        <v>9.622999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="D5" t="n">
-        <v>9.622999999999999</v>
+        <v>9.84</v>
       </c>
       <c r="E5" t="n">
-        <v>9.622999999999999</v>
+        <v>9.83</v>
       </c>
       <c r="F5" t="n">
-        <v>29663.6858</v>
+        <v>25877.93</v>
       </c>
       <c r="G5" t="n">
-        <v>-801343.9441604431</v>
+        <v>84238.41173955667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9.68</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -598,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.819000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.829000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.619999999999999</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1796.58</v>
+        <v>18010.98</v>
       </c>
       <c r="G6" t="n">
-        <v>-803140.5241604431</v>
+        <v>66227.43173955668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -623,11 +607,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="C7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="E7" t="n">
-        <v>9.619999999999999</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>2565.4713</v>
+        <v>62836.228</v>
       </c>
       <c r="G7" t="n">
-        <v>-803140.5241604431</v>
+        <v>3391.203739556673</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -663,11 +643,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -678,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>-803088.5241604431</v>
+        <v>3447.203739556673</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -702,14 +678,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>9.598000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.598000000000001</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,34 +694,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>14159.0094</v>
+        <v>3415.51</v>
       </c>
       <c r="G9" t="n">
-        <v>-803088.5241604431</v>
+        <v>3447.203739556673</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.598000000000001</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -760,22 +738,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.622999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.622999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.622999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>9.622999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>4005.689</v>
+        <v>91983.087</v>
       </c>
       <c r="G10" t="n">
-        <v>-803088.5241604431</v>
+        <v>-88535.88326044333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -784,10 +762,12 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>9.598000000000001</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -800,36 +780,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9.622999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>98023.2151</v>
+        <v>52.1818</v>
       </c>
       <c r="G11" t="n">
-        <v>-803088.5241604431</v>
+        <v>-88483.70146044332</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,22 +820,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.69</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="D12" t="n">
-        <v>9.69</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F12" t="n">
-        <v>52.4545</v>
+        <v>362334.9988</v>
       </c>
       <c r="G12" t="n">
-        <v>-803036.0696604431</v>
+        <v>-450818.7002604433</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -864,10 +844,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -880,22 +862,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="C13" t="n">
-        <v>9.76</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.76</v>
+        <v>9.6</v>
       </c>
       <c r="E13" t="n">
-        <v>9.69</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>53708.0663</v>
+        <v>37769.2726</v>
       </c>
       <c r="G13" t="n">
-        <v>-749328.0033604432</v>
+        <v>-488587.9728604433</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -904,7 +886,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -920,22 +904,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.76</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>9.76</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>15035.159</v>
+        <v>106</v>
       </c>
       <c r="G14" t="n">
-        <v>-734292.8443604432</v>
+        <v>-488481.9728604433</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -944,7 +928,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -960,22 +946,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>72.9791</v>
+        <v>3722.35</v>
       </c>
       <c r="G15" t="n">
-        <v>-734365.8234604432</v>
+        <v>-492204.3228604433</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -984,7 +970,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1000,22 +988,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.76</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>9.77</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9.69</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>484480.8732</v>
+        <v>161240.8054</v>
       </c>
       <c r="G16" t="n">
-        <v>-249884.9502604432</v>
+        <v>-330963.5174604433</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1024,7 +1012,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1040,22 +1030,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="C17" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="D17" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="E17" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="F17" t="n">
-        <v>105.2827</v>
+        <v>3820</v>
       </c>
       <c r="G17" t="n">
-        <v>-249884.9502604432</v>
+        <v>-334783.5174604433</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1064,7 +1054,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,22 +1072,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="C18" t="n">
-        <v>9.77</v>
+        <v>9.624000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
       <c r="E18" t="n">
-        <v>9.77</v>
+        <v>9.624000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>7165.7825</v>
+        <v>47292.1944</v>
       </c>
       <c r="G18" t="n">
-        <v>-249884.9502604432</v>
+        <v>-382075.7118604432</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1104,7 +1096,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1120,22 +1114,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9.77</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>9.77</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>2745.24</v>
+        <v>63594.0402</v>
       </c>
       <c r="G19" t="n">
-        <v>-249884.9502604432</v>
+        <v>-445669.7520604432</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1144,7 +1138,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1160,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="C20" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="D20" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E20" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F20" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G20" t="n">
-        <v>-249829.9502604432</v>
+        <v>-445565.7520604432</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1184,7 +1180,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,22 +1198,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>52.4455</v>
+        <v>4935</v>
       </c>
       <c r="G21" t="n">
-        <v>-249829.9502604432</v>
+        <v>-450500.7520604432</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1224,7 +1222,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1240,22 +1240,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>9.789999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>9.789999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>38718.3206</v>
+        <v>4987</v>
       </c>
       <c r="G22" t="n">
-        <v>-249829.9502604432</v>
+        <v>-445513.7520604432</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1264,7 +1264,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1280,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.789999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>9.789999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>9.789999999999999</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>449.438202247191</v>
+        <v>40353.1925</v>
       </c>
       <c r="G23" t="n">
-        <v>-249829.9502604432</v>
+        <v>-485866.9445604432</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1304,7 +1306,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1320,22 +1324,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.77</v>
+        <v>9.699</v>
       </c>
       <c r="C24" t="n">
-        <v>9.654999999999999</v>
+        <v>9.699</v>
       </c>
       <c r="D24" t="n">
-        <v>9.77</v>
+        <v>9.699</v>
       </c>
       <c r="E24" t="n">
-        <v>9.654999999999999</v>
+        <v>9.699</v>
       </c>
       <c r="F24" t="n">
-        <v>2455.2357</v>
+        <v>104</v>
       </c>
       <c r="G24" t="n">
-        <v>-252285.1859604432</v>
+        <v>-485762.9445604432</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1344,7 +1348,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1360,22 +1366,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.789999999999999</v>
+        <v>9.689</v>
       </c>
       <c r="C25" t="n">
-        <v>9.789999999999999</v>
+        <v>9.689</v>
       </c>
       <c r="D25" t="n">
-        <v>9.789999999999999</v>
+        <v>9.689</v>
       </c>
       <c r="E25" t="n">
-        <v>9.789999999999999</v>
+        <v>9.689</v>
       </c>
       <c r="F25" t="n">
-        <v>106.9026</v>
+        <v>53944.9824</v>
       </c>
       <c r="G25" t="n">
-        <v>-252178.2833604432</v>
+        <v>-539707.9269604433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1384,7 +1390,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1400,22 +1408,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.789999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>9.789999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>9.789999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>9.789999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>11897.85</v>
       </c>
       <c r="G26" t="n">
-        <v>-252178.2833604432</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1424,7 +1432,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1440,22 +1450,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.67</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>9.56</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>9.67</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>9.56</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>190971.2579</v>
+        <v>287033.34</v>
       </c>
       <c r="G27" t="n">
-        <v>-443149.5412604432</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1464,7 +1474,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1480,22 +1492,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.779999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>9.779999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>9.779999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>9.779999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>52.1818</v>
+        <v>3321.68</v>
       </c>
       <c r="G28" t="n">
-        <v>-443097.3594604431</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1504,7 +1516,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1520,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>295.2068</v>
+        <v>9643.82</v>
       </c>
       <c r="G29" t="n">
-        <v>-443392.5662604431</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1544,7 +1558,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,22 +1576,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>9.77</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>705.3993</v>
+        <v>14576.89</v>
       </c>
       <c r="G30" t="n">
-        <v>-443392.5662604431</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1584,7 +1600,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1600,22 +1618,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.765000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>9.765000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>9.765000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>9.765000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>560.7513</v>
+        <v>4935</v>
       </c>
       <c r="G31" t="n">
-        <v>-443953.3175604431</v>
+        <v>-551605.7769604432</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1624,7 +1642,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.76</v>
+        <v>9.632</v>
       </c>
       <c r="C32" t="n">
-        <v>9.76</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>9.76</v>
+        <v>9.632</v>
       </c>
       <c r="E32" t="n">
-        <v>9.76</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>680.003</v>
+        <v>220126.4814</v>
       </c>
       <c r="G32" t="n">
-        <v>-444633.3205604432</v>
+        <v>-771732.2583604432</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1664,7 +1684,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,22 +1702,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.76</v>
+        <v>9.68</v>
       </c>
       <c r="C33" t="n">
-        <v>9.789999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="D33" t="n">
-        <v>9.789999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="E33" t="n">
-        <v>9.76</v>
+        <v>9.68</v>
       </c>
       <c r="F33" t="n">
-        <v>951189.6235977528</v>
+        <v>52</v>
       </c>
       <c r="G33" t="n">
-        <v>506556.3030373096</v>
+        <v>-771680.2583604432</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1704,7 +1726,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1720,22 +1744,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.791</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>9.791</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>9.791</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>9.791</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>4407.94</v>
+        <v>29663.6858</v>
       </c>
       <c r="G34" t="n">
-        <v>510964.2430373096</v>
+        <v>-801343.9441604431</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1744,7 +1768,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,22 +1786,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>9.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>9.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>9.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>52</v>
+        <v>1796.58</v>
       </c>
       <c r="G35" t="n">
-        <v>511016.2430373096</v>
+        <v>-803140.5241604431</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1784,7 +1810,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,22 +1828,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>9.82</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>9.82</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>11108.8282</v>
+        <v>2565.4713</v>
       </c>
       <c r="G36" t="n">
-        <v>522125.0712373096</v>
+        <v>-803140.5241604431</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1824,7 +1852,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,22 +1870,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.82</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>9.852</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>9.852</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>9.82</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>3000</v>
+        <v>52</v>
       </c>
       <c r="G37" t="n">
-        <v>525125.0712373096</v>
+        <v>-803088.5241604431</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1864,7 +1894,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,22 +1912,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>7496</v>
+        <v>14159.0094</v>
       </c>
       <c r="G38" t="n">
-        <v>517629.0712373096</v>
+        <v>-803088.5241604431</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1904,7 +1936,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1920,22 +1954,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>103.4127</v>
+        <v>4005.689</v>
       </c>
       <c r="G39" t="n">
-        <v>517629.0712373096</v>
+        <v>-803088.5241604431</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1944,7 +1978,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,22 +1996,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>9.81</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>4203.25</v>
+        <v>98023.2151</v>
       </c>
       <c r="G40" t="n">
-        <v>517629.0712373096</v>
+        <v>-803088.5241604431</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1984,7 +2020,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,31 +2038,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="C41" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="D41" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="E41" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="F41" t="n">
-        <v>52.8454</v>
+        <v>52.4545</v>
       </c>
       <c r="G41" t="n">
-        <v>517681.9166373096</v>
+        <v>-803036.0696604431</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9.622999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,22 +2082,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="C42" t="n">
-        <v>9.856</v>
+        <v>9.76</v>
       </c>
       <c r="D42" t="n">
-        <v>9.856</v>
+        <v>9.76</v>
       </c>
       <c r="E42" t="n">
-        <v>9.856</v>
+        <v>9.69</v>
       </c>
       <c r="F42" t="n">
-        <v>6345.9376</v>
+        <v>53708.0663</v>
       </c>
       <c r="G42" t="n">
-        <v>517681.9166373096</v>
+        <v>-749328.0033604432</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2064,7 +2106,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,22 +2124,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.856999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="C43" t="n">
-        <v>9.856999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="D43" t="n">
-        <v>9.856999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E43" t="n">
-        <v>9.856999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="F43" t="n">
-        <v>10213.2659</v>
+        <v>15035.159</v>
       </c>
       <c r="G43" t="n">
-        <v>527895.1825373096</v>
+        <v>-734292.8443604432</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2104,7 +2148,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,22 +2166,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.859999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="C44" t="n">
-        <v>9.859999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="D44" t="n">
-        <v>9.859999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="E44" t="n">
-        <v>9.859999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="F44" t="n">
-        <v>4935</v>
+        <v>72.9791</v>
       </c>
       <c r="G44" t="n">
-        <v>532830.1825373096</v>
+        <v>-734365.8234604432</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2144,7 +2190,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,22 +2208,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.869999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="C45" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="D45" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E45" t="n">
-        <v>9.869999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F45" t="n">
-        <v>7450.1536</v>
+        <v>484480.8732</v>
       </c>
       <c r="G45" t="n">
-        <v>540280.3361373096</v>
+        <v>-249884.9502604432</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2184,7 +2232,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,22 +2250,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="C46" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="D46" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E46" t="n">
-        <v>9.869999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F46" t="n">
-        <v>3424.84</v>
+        <v>105.2827</v>
       </c>
       <c r="G46" t="n">
-        <v>540280.3361373096</v>
+        <v>-249884.9502604432</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2224,7 +2274,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2240,22 +2292,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="C47" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="D47" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="E47" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="F47" t="n">
-        <v>52.5555</v>
+        <v>7165.7825</v>
       </c>
       <c r="G47" t="n">
-        <v>540332.8916373096</v>
+        <v>-249884.9502604432</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2264,7 +2316,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2280,22 +2334,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="C48" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="D48" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="E48" t="n">
-        <v>9.888</v>
+        <v>9.77</v>
       </c>
       <c r="F48" t="n">
-        <v>82.4444</v>
+        <v>2745.24</v>
       </c>
       <c r="G48" t="n">
-        <v>540332.8916373096</v>
+        <v>-249884.9502604432</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2304,7 +2358,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2320,22 +2376,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.888</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>9.888</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>9.888</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>9.888</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>10087.5361</v>
+        <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>540332.8916373096</v>
+        <v>-249829.9502604432</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2344,7 +2400,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,22 +2418,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.869999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>9.869999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>208404.8023</v>
+        <v>52.4455</v>
       </c>
       <c r="G50" t="n">
-        <v>331928.0893373096</v>
+        <v>-249829.9502604432</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2384,7 +2442,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,22 +2460,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.880000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9.859999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>9.880000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>9.789999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>25677.4444</v>
+        <v>38718.3206</v>
       </c>
       <c r="G51" t="n">
-        <v>357605.5337373096</v>
+        <v>-249829.9502604432</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2424,7 +2484,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,22 +2502,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>3425.02</v>
+        <v>449.438202247191</v>
       </c>
       <c r="G52" t="n">
-        <v>354180.5137373095</v>
+        <v>-249829.9502604432</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2464,7 +2526,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,22 +2544,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="C53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.654999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.654999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>13163.0388</v>
+        <v>2455.2357</v>
       </c>
       <c r="G53" t="n">
-        <v>354180.5137373095</v>
+        <v>-252285.1859604432</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2504,7 +2568,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,22 +2586,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.6</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>9.6</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>9.6</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>9.6</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>1997</v>
+        <v>106.9026</v>
       </c>
       <c r="G54" t="n">
-        <v>352183.5137373095</v>
+        <v>-252178.2833604432</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2544,7 +2610,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2572,10 +2640,10 @@
         <v>9.789999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>352235.5137373095</v>
+        <v>-252178.2833604432</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2584,7 +2652,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,22 +2670,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.789999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="C56" t="n">
-        <v>9.789999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="D56" t="n">
-        <v>9.789999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="E56" t="n">
-        <v>9.789999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>190971.2579</v>
       </c>
       <c r="G56" t="n">
-        <v>352235.5137373095</v>
+        <v>-443149.5412604432</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2624,7 +2694,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,22 +2712,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>9.789999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>3064.351378958121</v>
+        <v>52.1818</v>
       </c>
       <c r="G57" t="n">
-        <v>352235.5137373095</v>
+        <v>-443097.3594604431</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2664,7 +2736,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,22 +2754,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="C58" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="D58" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="E58" t="n">
-        <v>9.789999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="F58" t="n">
-        <v>6212.16392104188</v>
+        <v>295.2068</v>
       </c>
       <c r="G58" t="n">
-        <v>352235.5137373095</v>
+        <v>-443392.5662604431</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2704,7 +2778,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,22 +2796,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="C59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="D59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="F59" t="n">
-        <v>52.2244</v>
+        <v>705.3993</v>
       </c>
       <c r="G59" t="n">
-        <v>352287.7381373096</v>
+        <v>-443392.5662604431</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2744,7 +2820,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,22 +2838,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>9.800000000000001</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>82.4444</v>
+        <v>560.7513</v>
       </c>
       <c r="G60" t="n">
-        <v>352287.7381373096</v>
+        <v>-443953.3175604431</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2784,7 +2862,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2800,22 +2880,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="C61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="D61" t="n">
-        <v>9.81</v>
+        <v>9.76</v>
       </c>
       <c r="E61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="F61" t="n">
-        <v>41731.1728</v>
+        <v>680.003</v>
       </c>
       <c r="G61" t="n">
-        <v>352287.7381373096</v>
+        <v>-444633.3205604432</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2824,7 +2904,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,22 +2922,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.84</v>
+        <v>9.76</v>
       </c>
       <c r="C62" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>9.84</v>
+        <v>9.76</v>
       </c>
       <c r="F62" t="n">
-        <v>180</v>
+        <v>951189.6235977528</v>
       </c>
       <c r="G62" t="n">
-        <v>352467.7381373096</v>
+        <v>506556.3030373096</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2864,7 +2946,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,22 +2964,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.84</v>
+        <v>9.791</v>
       </c>
       <c r="C63" t="n">
-        <v>9.84</v>
+        <v>9.791</v>
       </c>
       <c r="D63" t="n">
-        <v>9.84</v>
+        <v>9.791</v>
       </c>
       <c r="E63" t="n">
-        <v>9.84</v>
+        <v>9.791</v>
       </c>
       <c r="F63" t="n">
-        <v>6849.51</v>
+        <v>4407.94</v>
       </c>
       <c r="G63" t="n">
-        <v>352467.7381373096</v>
+        <v>510964.2430373096</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2904,7 +2988,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,22 +3006,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.84</v>
+        <v>9.81</v>
       </c>
       <c r="C64" t="n">
-        <v>9.9</v>
+        <v>9.81</v>
       </c>
       <c r="D64" t="n">
-        <v>9.9</v>
+        <v>9.81</v>
       </c>
       <c r="E64" t="n">
-        <v>9.84</v>
+        <v>9.81</v>
       </c>
       <c r="F64" t="n">
-        <v>47117.6895</v>
+        <v>52</v>
       </c>
       <c r="G64" t="n">
-        <v>399585.4276373095</v>
+        <v>511016.2430373096</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2944,7 +3030,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,22 +3048,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>9.99</v>
+        <v>9.82</v>
       </c>
       <c r="D65" t="n">
-        <v>9.99</v>
+        <v>9.82</v>
       </c>
       <c r="E65" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>2603.83</v>
+        <v>11108.8282</v>
       </c>
       <c r="G65" t="n">
-        <v>402189.2576373096</v>
+        <v>522125.0712373096</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2984,7 +3072,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3000,22 +3090,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.99</v>
+        <v>9.82</v>
       </c>
       <c r="C66" t="n">
-        <v>9.99</v>
+        <v>9.852</v>
       </c>
       <c r="D66" t="n">
-        <v>9.99</v>
+        <v>9.852</v>
       </c>
       <c r="E66" t="n">
-        <v>9.99</v>
+        <v>9.82</v>
       </c>
       <c r="F66" t="n">
-        <v>240</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="n">
-        <v>402189.2576373096</v>
+        <v>525125.0712373096</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3024,7 +3114,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,22 +3132,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>9.81</v>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>9.81</v>
       </c>
       <c r="E67" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>7496</v>
       </c>
       <c r="G67" t="n">
-        <v>412189.2576373096</v>
+        <v>517629.0712373096</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3064,7 +3156,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3080,62 +3174,64 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="C68" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="D68" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="E68" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="F68" t="n">
-        <v>5080</v>
+        <v>103.4127</v>
       </c>
       <c r="G68" t="n">
-        <v>407109.2576373096</v>
+        <v>517629.0712373096</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>9.81</v>
       </c>
       <c r="C69" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="D69" t="n">
-        <v>10.09</v>
+        <v>9.81</v>
       </c>
       <c r="E69" t="n">
-        <v>9.99</v>
+        <v>9.81</v>
       </c>
       <c r="F69" t="n">
-        <v>170988.0526</v>
+        <v>4203.25</v>
       </c>
       <c r="G69" t="n">
-        <v>407109.2576373096</v>
+        <v>517629.0712373096</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3144,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3156,32 +3258,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="C70" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="D70" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="E70" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="F70" t="n">
-        <v>119990.8801</v>
+        <v>52.8454</v>
       </c>
       <c r="G70" t="n">
-        <v>527100.1377373096</v>
+        <v>517681.9166373096</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3192,32 +3300,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="C71" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="D71" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="E71" t="n">
-        <v>10.1</v>
+        <v>9.856</v>
       </c>
       <c r="F71" t="n">
-        <v>71500</v>
+        <v>6345.9376</v>
       </c>
       <c r="G71" t="n">
-        <v>527100.1377373096</v>
+        <v>517681.9166373096</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3228,32 +3342,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.92</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>9.92</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>9.92</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>9.92</v>
+        <v>9.856999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>19770</v>
+        <v>10213.2659</v>
       </c>
       <c r="G72" t="n">
-        <v>507330.1377373096</v>
+        <v>527895.1825373096</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3264,32 +3384,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.92</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>9.890000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>9.92</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>9.890000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>625</v>
+        <v>4935</v>
       </c>
       <c r="G73" t="n">
-        <v>506705.1377373096</v>
+        <v>532830.1825373096</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3300,32 +3426,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.890000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>9.890000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>181.0497</v>
+        <v>7450.1536</v>
       </c>
       <c r="G74" t="n">
-        <v>506886.1874373095</v>
+        <v>540280.3361373096</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3336,32 +3468,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>9.92</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>150.1818</v>
+        <v>3424.84</v>
       </c>
       <c r="G75" t="n">
-        <v>506886.1874373095</v>
+        <v>540280.3361373096</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3372,32 +3510,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="C76" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="D76" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="E76" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="F76" t="n">
-        <v>396.8598</v>
+        <v>52.5555</v>
       </c>
       <c r="G76" t="n">
-        <v>506489.3276373096</v>
+        <v>540332.8916373096</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3408,32 +3552,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.91</v>
+        <v>9.888</v>
       </c>
       <c r="C77" t="n">
-        <v>9.91</v>
+        <v>9.888</v>
       </c>
       <c r="D77" t="n">
-        <v>9.91</v>
+        <v>9.888</v>
       </c>
       <c r="E77" t="n">
-        <v>9.91</v>
+        <v>9.888</v>
       </c>
       <c r="F77" t="n">
-        <v>55</v>
+        <v>82.4444</v>
       </c>
       <c r="G77" t="n">
-        <v>506544.3276373096</v>
+        <v>540332.8916373096</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3444,32 +3594,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.789999999999999</v>
+        <v>9.888</v>
       </c>
       <c r="C78" t="n">
-        <v>9.789999999999999</v>
+        <v>9.888</v>
       </c>
       <c r="D78" t="n">
-        <v>9.789999999999999</v>
+        <v>9.888</v>
       </c>
       <c r="E78" t="n">
-        <v>9.789999999999999</v>
+        <v>9.888</v>
       </c>
       <c r="F78" t="n">
-        <v>3295.94</v>
+        <v>10087.5361</v>
       </c>
       <c r="G78" t="n">
-        <v>503248.3876373096</v>
+        <v>540332.8916373096</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3480,22 +3636,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>9.9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>60</v>
+        <v>208404.8023</v>
       </c>
       <c r="G79" t="n">
-        <v>503308.3876373096</v>
+        <v>331928.0893373096</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3504,8 +3660,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3678,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.9</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>9.9</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>9.9</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>9.9</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>120</v>
+        <v>25677.4444</v>
       </c>
       <c r="G80" t="n">
-        <v>503308.3876373096</v>
+        <v>357605.5337373096</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3540,8 +3702,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3720,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.789999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>9.789999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>325610.6917</v>
+        <v>3425.02</v>
       </c>
       <c r="G81" t="n">
-        <v>177697.6959373095</v>
+        <v>354180.5137373095</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3576,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +3762,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.670999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>9.630000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>9.670999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>9.630000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>15256.4633</v>
+        <v>13163.0388</v>
       </c>
       <c r="G82" t="n">
-        <v>162441.2326373095</v>
+        <v>354180.5137373095</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3612,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +3804,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.622</v>
+        <v>9.6</v>
       </c>
       <c r="C83" t="n">
-        <v>9.622</v>
+        <v>9.6</v>
       </c>
       <c r="D83" t="n">
-        <v>9.622</v>
+        <v>9.6</v>
       </c>
       <c r="E83" t="n">
-        <v>9.622</v>
+        <v>9.6</v>
       </c>
       <c r="F83" t="n">
-        <v>71237.4437</v>
+        <v>1997</v>
       </c>
       <c r="G83" t="n">
-        <v>91203.78893730952</v>
+        <v>352183.5137373095</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3648,8 +3828,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3660,32 +3846,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.789</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>9.789</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>9.789</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>9.789</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>936.9659</v>
+        <v>52</v>
       </c>
       <c r="G84" t="n">
-        <v>92140.75483730952</v>
+        <v>352235.5137373095</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3696,22 +3890,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.712</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>9.712</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>6400.3496</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>85740.40523730952</v>
+        <v>352235.5137373095</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3720,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3932,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>9.677</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>13599.6504</v>
+        <v>3064.351378958121</v>
       </c>
       <c r="G86" t="n">
-        <v>85740.40523730952</v>
+        <v>352235.5137373095</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3756,8 +3956,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3768,22 +3974,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>9.84</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>60</v>
+        <v>6212.16392104188</v>
       </c>
       <c r="G87" t="n">
-        <v>85800.40523730952</v>
+        <v>352235.5137373095</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3792,8 +3998,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +4016,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.83</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>9.869999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>9.869999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>9.83</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>16748.5897</v>
+        <v>52.2244</v>
       </c>
       <c r="G88" t="n">
-        <v>102548.9949373095</v>
+        <v>352287.7381373096</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3828,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +4058,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.744999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>9.734999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>9.744999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>9.734999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>13599.6504</v>
+        <v>82.4444</v>
       </c>
       <c r="G89" t="n">
-        <v>88949.34453730952</v>
+        <v>352287.7381373096</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3864,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +4100,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.734999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9.789</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>9.789</v>
+        <v>9.81</v>
       </c>
       <c r="E90" t="n">
-        <v>9.715</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>42545.6881</v>
+        <v>41731.1728</v>
       </c>
       <c r="G90" t="n">
-        <v>131495.0326373095</v>
+        <v>352287.7381373096</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3900,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3912,22 +4142,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.632</v>
+        <v>9.84</v>
       </c>
       <c r="C91" t="n">
-        <v>9.779</v>
+        <v>9.84</v>
       </c>
       <c r="D91" t="n">
-        <v>9.779</v>
+        <v>9.84</v>
       </c>
       <c r="E91" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="F91" t="n">
-        <v>10055</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
-        <v>121440.0326373095</v>
+        <v>352467.7381373096</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3936,8 +4166,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3948,22 +4184,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="C92" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="D92" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="E92" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="F92" t="n">
-        <v>92439.22440000001</v>
+        <v>6849.51</v>
       </c>
       <c r="G92" t="n">
-        <v>29000.80823730951</v>
+        <v>352467.7381373096</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3972,8 +4208,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4226,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="C93" t="n">
-        <v>9.749000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D93" t="n">
-        <v>9.749000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="E93" t="n">
-        <v>9.622</v>
+        <v>9.84</v>
       </c>
       <c r="F93" t="n">
-        <v>7872.6694</v>
+        <v>47117.6895</v>
       </c>
       <c r="G93" t="n">
-        <v>36873.47763730951</v>
+        <v>399585.4276373095</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4008,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +4268,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.749000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C94" t="n">
-        <v>9.749000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="D94" t="n">
-        <v>9.749000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="E94" t="n">
-        <v>9.749000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="F94" t="n">
-        <v>75.4427</v>
+        <v>2603.83</v>
       </c>
       <c r="G94" t="n">
-        <v>36873.47763730951</v>
+        <v>402189.2576373096</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4044,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4310,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.718999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="C95" t="n">
-        <v>9.718999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="D95" t="n">
-        <v>9.718999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="E95" t="n">
-        <v>9.718999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="F95" t="n">
-        <v>15395.2509</v>
+        <v>240</v>
       </c>
       <c r="G95" t="n">
-        <v>21478.22673730951</v>
+        <v>402189.2576373096</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4080,8 +4334,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +4352,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.631</v>
+        <v>9.99</v>
       </c>
       <c r="C96" t="n">
-        <v>9.631</v>
+        <v>10</v>
       </c>
       <c r="D96" t="n">
-        <v>9.631</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>9.631</v>
+        <v>9.99</v>
       </c>
       <c r="F96" t="n">
-        <v>7817.6694</v>
+        <v>10000</v>
       </c>
       <c r="G96" t="n">
-        <v>13660.55733730951</v>
+        <v>412189.2576373096</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4116,8 +4376,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4128,34 +4394,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="C97" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="D97" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="E97" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="F97" t="n">
-        <v>52</v>
+        <v>5080</v>
       </c>
       <c r="G97" t="n">
-        <v>13712.55733730951</v>
+        <v>407109.2576373096</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>1.034542143600417</v>
       </c>
       <c r="N97" t="inlineStr"/>
     </row>
@@ -4164,28 +4436,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.788</v>
+        <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="D98" t="n">
-        <v>9.788</v>
+        <v>10.09</v>
       </c>
       <c r="E98" t="n">
-        <v>9.788</v>
+        <v>9.99</v>
       </c>
       <c r="F98" t="n">
-        <v>52</v>
+        <v>170988.0526</v>
       </c>
       <c r="G98" t="n">
-        <v>13712.55733730951</v>
+        <v>407109.2576373096</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4200,28 +4472,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.773999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C99" t="n">
-        <v>9.773999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="D99" t="n">
-        <v>9.773999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E99" t="n">
-        <v>9.773999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1519.7682</v>
+        <v>119990.8801</v>
       </c>
       <c r="G99" t="n">
-        <v>12192.78913730951</v>
+        <v>527100.1377373096</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4236,28 +4508,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.773</v>
+        <v>10.1</v>
       </c>
       <c r="C100" t="n">
-        <v>9.81</v>
+        <v>10.1</v>
       </c>
       <c r="D100" t="n">
-        <v>9.81</v>
+        <v>10.1</v>
       </c>
       <c r="E100" t="n">
-        <v>9.773</v>
+        <v>10.1</v>
       </c>
       <c r="F100" t="n">
-        <v>25000</v>
+        <v>71500</v>
       </c>
       <c r="G100" t="n">
-        <v>37192.78913730951</v>
+        <v>527100.1377373096</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4272,28 +4544,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.81</v>
+        <v>9.92</v>
       </c>
       <c r="C101" t="n">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="D101" t="n">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="E101" t="n">
-        <v>9.81</v>
+        <v>9.92</v>
       </c>
       <c r="F101" t="n">
-        <v>6440</v>
+        <v>19770</v>
       </c>
       <c r="G101" t="n">
-        <v>43632.78913730951</v>
+        <v>507330.1377373096</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4308,28 +4580,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="C102" t="n">
-        <v>9.91</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="E102" t="n">
-        <v>9.91</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>10578.3924</v>
+        <v>625</v>
       </c>
       <c r="G102" t="n">
-        <v>43632.78913730951</v>
+        <v>506705.1377373096</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4344,28 +4616,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.919</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>9.919</v>
+        <v>9.92</v>
       </c>
       <c r="D103" t="n">
-        <v>9.919</v>
+        <v>9.92</v>
       </c>
       <c r="E103" t="n">
-        <v>9.919</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>45970.3599</v>
+        <v>181.0497</v>
       </c>
       <c r="G103" t="n">
-        <v>89603.14903730951</v>
+        <v>506886.1874373095</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4392,16 +4664,16 @@
         <v>9.92</v>
       </c>
       <c r="F104" t="n">
-        <v>220</v>
+        <v>150.1818</v>
       </c>
       <c r="G104" t="n">
-        <v>89823.14903730951</v>
+        <v>506886.1874373095</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4416,28 +4688,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.82</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>9.82</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>9.82</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>9.82</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>2208.7135</v>
+        <v>396.8598</v>
       </c>
       <c r="G105" t="n">
-        <v>87614.43553730952</v>
+        <v>506489.3276373096</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4452,28 +4724,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.82</v>
+        <v>9.91</v>
       </c>
       <c r="C106" t="n">
-        <v>9.909000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="D106" t="n">
-        <v>9.909000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="E106" t="n">
-        <v>9.82</v>
+        <v>9.91</v>
       </c>
       <c r="F106" t="n">
-        <v>15956</v>
+        <v>55</v>
       </c>
       <c r="G106" t="n">
-        <v>103570.4355373095</v>
+        <v>506544.3276373096</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4483,6 +4755,1050 @@
       </c>
       <c r="N106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3295.94</v>
+      </c>
+      <c r="G107" t="n">
+        <v>503248.3876373096</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F108" t="n">
+        <v>60</v>
+      </c>
+      <c r="G108" t="n">
+        <v>503308.3876373096</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>120</v>
+      </c>
+      <c r="G109" t="n">
+        <v>503308.3876373096</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>325610.6917</v>
+      </c>
+      <c r="G110" t="n">
+        <v>177697.6959373095</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9.670999999999999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9.670999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>15256.4633</v>
+      </c>
+      <c r="G111" t="n">
+        <v>162441.2326373095</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="F112" t="n">
+        <v>71237.4437</v>
+      </c>
+      <c r="G112" t="n">
+        <v>91203.78893730952</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="F113" t="n">
+        <v>936.9659</v>
+      </c>
+      <c r="G113" t="n">
+        <v>92140.75483730952</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.712</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6400.3496</v>
+      </c>
+      <c r="G114" t="n">
+        <v>85740.40523730952</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.677</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13599.6504</v>
+      </c>
+      <c r="G115" t="n">
+        <v>85740.40523730952</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F116" t="n">
+        <v>60</v>
+      </c>
+      <c r="G116" t="n">
+        <v>85800.40523730952</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16748.5897</v>
+      </c>
+      <c r="G117" t="n">
+        <v>102548.9949373095</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.744999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.744999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13599.6504</v>
+      </c>
+      <c r="G118" t="n">
+        <v>88949.34453730952</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.734999999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.789</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.715</v>
+      </c>
+      <c r="F119" t="n">
+        <v>42545.6881</v>
+      </c>
+      <c r="G119" t="n">
+        <v>131495.0326373095</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.632</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.779</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.779</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10055</v>
+      </c>
+      <c r="G120" t="n">
+        <v>121440.0326373095</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="F121" t="n">
+        <v>92439.22440000001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>29000.80823730951</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.622</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7872.6694</v>
+      </c>
+      <c r="G122" t="n">
+        <v>36873.47763730951</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>75.4427</v>
+      </c>
+      <c r="G123" t="n">
+        <v>36873.47763730951</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9.718999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.718999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.718999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.718999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15395.2509</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21478.22673730951</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.631</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.631</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.631</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.631</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7817.6694</v>
+      </c>
+      <c r="G125" t="n">
+        <v>13660.55733730951</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="F126" t="n">
+        <v>52</v>
+      </c>
+      <c r="G126" t="n">
+        <v>13712.55733730951</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.788</v>
+      </c>
+      <c r="F127" t="n">
+        <v>52</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13712.55733730951</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1519.7682</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12192.78913730951</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.773</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.773</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>37192.78913730951</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6440</v>
+      </c>
+      <c r="G130" t="n">
+        <v>43632.78913730951</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10578.3924</v>
+      </c>
+      <c r="G131" t="n">
+        <v>43632.78913730951</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="F132" t="n">
+        <v>45970.3599</v>
+      </c>
+      <c r="G132" t="n">
+        <v>89603.14903730951</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F133" t="n">
+        <v>220</v>
+      </c>
+      <c r="G133" t="n">
+        <v>89823.14903730951</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2208.7135</v>
+      </c>
+      <c r="G134" t="n">
+        <v>87614.43553730952</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.909000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.909000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15956</v>
+      </c>
+      <c r="G135" t="n">
+        <v>103570.4355373095</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,21 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +558,17 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +595,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +632,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +667,19 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.598000000000001</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.598000000000001</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,26 +704,19 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.598000000000001</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,22 +743,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>9.598000000000001</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,22 +778,19 @@
         <v>-88483.70146044332</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -840,22 +817,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -882,22 +854,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,22 +891,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -966,22 +928,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,22 +965,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1050,22 +1002,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,22 +1039,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1134,22 +1076,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1174,24 +1111,21 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,22 +1152,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1260,22 +1189,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,22 +1226,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,22 +1263,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,22 +1300,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,22 +1337,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1468,24 +1372,21 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1510,24 +1411,21 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1552,24 +1450,21 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1594,24 +1489,21 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1636,24 +1528,21 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,22 +1569,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1722,22 +1606,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,22 +1643,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1806,22 +1680,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1848,22 +1717,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1890,22 +1754,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1930,24 +1789,21 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1974,22 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2014,24 +1865,21 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2056,26 +1904,21 @@
         <v>-803036.0696604431</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>9.622999999999999</v>
       </c>
-      <c r="K41" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2100,24 +1943,21 @@
         <v>-749328.0033604432</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2144,22 +1984,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2186,22 +2021,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2228,22 +2058,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2270,22 +2095,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2312,22 +2132,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2354,22 +2169,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2396,22 +2206,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2438,22 +2243,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2480,22 +2280,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2522,22 +2317,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2564,22 +2354,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2606,22 +2391,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2648,22 +2428,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2690,22 +2465,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2732,22 +2502,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2774,22 +2539,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2816,22 +2576,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2858,22 +2613,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2900,22 +2650,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2942,22 +2687,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2984,22 +2724,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3026,22 +2761,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3068,22 +2798,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3110,22 +2835,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3152,22 +2872,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3194,22 +2909,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3236,22 +2946,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3278,22 +2983,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3320,22 +3020,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3362,22 +3057,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3404,22 +3094,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3446,22 +3131,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3488,22 +3168,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3528,24 +3203,19 @@
         <v>540332.8916373096</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3572,22 +3242,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3614,22 +3279,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3656,22 +3316,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3698,22 +3353,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3738,24 +3388,17 @@
         <v>354180.5137373095</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3782,22 +3425,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3824,22 +3458,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3864,26 +3489,15 @@
         <v>352235.5137373095</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3910,22 +3524,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3952,22 +3557,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3994,22 +3590,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4036,22 +3623,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4078,22 +3656,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4120,22 +3689,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4162,22 +3722,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4204,22 +3755,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4246,22 +3788,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4288,22 +3821,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4328,24 +3852,15 @@
         <v>402189.2576373096</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4370,24 +3885,15 @@
         <v>412189.2576373096</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4412,24 +3918,15 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1.034542143600417</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4454,18 +3951,15 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4490,18 +3984,15 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4526,18 +4017,15 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4562,18 +4050,15 @@
         <v>507330.1377373096</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4598,18 +4083,15 @@
         <v>506705.1377373096</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4634,18 +4116,15 @@
         <v>506886.1874373095</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4672,16 +4151,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4708,16 +4184,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4744,16 +4217,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4780,16 +4250,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4816,16 +4283,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4852,16 +4316,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4886,18 +4347,15 @@
         <v>177697.6959373095</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4922,18 +4380,15 @@
         <v>162441.2326373095</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4960,16 +4415,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4996,16 +4448,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5032,16 +4481,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5068,16 +4514,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5104,16 +4547,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5140,16 +4580,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5176,16 +4613,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5212,16 +4646,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5248,16 +4679,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5284,16 +4712,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5318,18 +4743,15 @@
         <v>36873.47763730951</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5356,16 +4778,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5390,18 +4809,15 @@
         <v>21478.22673730951</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5426,18 +4842,15 @@
         <v>13660.55733730951</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5462,18 +4875,15 @@
         <v>13712.55733730951</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5500,16 +4910,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5534,18 +4941,15 @@
         <v>12192.78913730951</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5572,16 +4976,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5608,16 +5009,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5644,16 +5042,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5680,16 +5075,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5716,16 +5108,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5752,16 +5141,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5788,18 +5174,15 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9.75</v>
@@ -556,9 +556,11 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -593,9 +595,11 @@
         <v>66227.43173955668</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.84</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -630,9 +634,11 @@
         <v>3391.203739556673</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.808999999999999</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -667,9 +673,11 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.598000000000001</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -704,9 +712,11 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -1111,7 +1121,7 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>9.622999999999999</v>
@@ -1224,9 +1234,11 @@
         <v>-485866.9445604432</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1372,11 +1384,9 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1411,11 +1421,9 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1450,11 +1458,9 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1489,11 +1495,9 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1528,11 +1532,9 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.630000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1789,11 +1791,9 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9.622999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1865,11 +1865,9 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9.622999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1904,11 +1902,9 @@
         <v>-803036.0696604431</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9.622999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1943,11 +1939,9 @@
         <v>-749328.0033604432</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -3203,7 +3197,7 @@
         <v>540332.8916373096</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3388,16 +3382,18 @@
         <v>354180.5137373095</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3427,7 +3423,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3460,7 +3460,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3493,7 +3497,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3526,7 +3534,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3559,7 +3571,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3592,7 +3608,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3625,7 +3645,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3658,7 +3682,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3691,7 +3719,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3724,7 +3756,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3757,7 +3793,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3790,7 +3830,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3867,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +3900,15 @@
         <v>402189.2576373096</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3937,15 @@
         <v>412189.2576373096</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +3974,15 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +4011,15 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +4048,15 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4017,11 +4085,15 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +4122,15 @@
         <v>507330.1377373096</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +4159,15 @@
         <v>506705.1377373096</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +4196,15 @@
         <v>506886.1874373095</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +4233,16 @@
         <v>506886.1874373095</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4215,7 +4301,7 @@
         <v>506544.3276373096</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4248,7 +4334,7 @@
         <v>503248.3876373096</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4347,7 +4433,7 @@
         <v>177697.6959373095</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4380,7 +4466,7 @@
         <v>162441.2326373095</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4413,7 +4499,7 @@
         <v>91203.78893730952</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4446,7 +4532,7 @@
         <v>92140.75483730952</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4479,7 +4565,7 @@
         <v>85740.40523730952</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4512,7 +4598,7 @@
         <v>85740.40523730952</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4545,7 +4631,7 @@
         <v>85800.40523730952</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4578,7 +4664,7 @@
         <v>102548.9949373095</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4611,7 +4697,7 @@
         <v>88949.34453730952</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4644,7 +4730,7 @@
         <v>131495.0326373095</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4677,7 +4763,7 @@
         <v>121440.0326373095</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4710,7 +4796,7 @@
         <v>29000.80823730951</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4743,7 +4829,7 @@
         <v>36873.47763730951</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4776,7 +4862,7 @@
         <v>36873.47763730951</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4809,7 +4895,7 @@
         <v>21478.22673730951</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4842,7 +4928,7 @@
         <v>13660.55733730951</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4875,7 +4961,7 @@
         <v>13712.55733730951</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4941,7 +5027,7 @@
         <v>12192.78913730951</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5183,6 +5269,6 @@
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,17 +517,11 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,17 +550,11 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,17 +583,11 @@
         <v>66227.43173955668</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.84</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,17 +616,11 @@
         <v>3391.203739556673</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.808999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -673,17 +649,11 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.598000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,17 +682,11 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.800000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,15 +715,11 @@
         <v>-88535.88326044333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -866,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -903,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,15 +913,11 @@
         <v>-330963.5174604433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,15 +946,11 @@
         <v>-334783.5174604433</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,15 +979,11 @@
         <v>-382075.7118604432</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,15 +1012,11 @@
         <v>-445669.7520604432</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,17 +1045,11 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.622999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,15 +1078,11 @@
         <v>-450500.7520604432</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,15 +1111,11 @@
         <v>-445513.7520604432</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,17 +1144,11 @@
         <v>-485866.9445604432</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1462,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1499,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1536,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1610,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1647,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1684,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1758,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1795,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1832,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1869,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1906,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1943,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1980,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2017,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2128,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2165,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2202,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2239,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2461,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2266,15 @@
         <v>-443097.3594604431</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2531,13 +2303,17 @@
         <v>-443392.5662604431</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9.56</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2571,10 +2347,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9.56</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2605,15 +2383,15 @@
         <v>-443953.3175604431</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="J60" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2642,13 +2420,17 @@
         <v>-444633.3205604432</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.765000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2679,13 +2461,17 @@
         <v>506556.3030373096</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2719,7 +2505,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,7 +2544,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2793,7 +2583,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,7 +2622,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,7 +2661,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,7 +2700,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2941,7 +2739,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,7 +2778,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3015,7 +2817,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,7 +2856,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,7 +2895,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,7 +2934,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,7 +2973,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,7 +3012,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,7 +3051,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,7 +3090,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,7 +3129,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,7 +3168,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,7 +3207,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,7 +3246,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,7 +3285,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,7 +3324,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3533,7 +3363,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,7 +3402,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,7 +3441,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3644,7 +3480,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,7 +3519,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,7 +3558,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3755,7 +3597,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,7 +3636,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,7 +3675,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,7 +3714,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,7 +3753,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,7 +3792,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,7 +3831,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,7 +3909,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,7 +3948,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,7 +3987,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,7 +4026,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,7 +4065,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,16 +4101,20 @@
         <v>506886.1874373095</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9.77</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4271,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4179,17 @@
         <v>506544.3276373096</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4218,17 @@
         <v>503248.3876373096</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4299,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4338,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4374,17 @@
         <v>162441.2326373095</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4413,17 @@
         <v>91203.78893730952</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4532,11 +4452,17 @@
         <v>92140.75483730952</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4565,11 +4491,17 @@
         <v>85740.40523730952</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4598,11 +4530,17 @@
         <v>85740.40523730952</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4631,11 +4569,17 @@
         <v>85800.40523730952</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4664,11 +4608,17 @@
         <v>102548.9949373095</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4647,17 @@
         <v>88949.34453730952</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4686,17 @@
         <v>131495.0326373095</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4763,11 +4725,17 @@
         <v>121440.0326373095</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4764,17 @@
         <v>29000.80823730951</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4829,11 +4803,17 @@
         <v>36873.47763730951</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4862,11 +4842,17 @@
         <v>36873.47763730951</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4881,17 @@
         <v>21478.22673730951</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4931,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4964,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4997,8 +5001,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5030,8 +5040,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5063,8 +5079,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5096,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5157,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5162,8 +5196,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5195,8 +5235,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5228,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5261,14 +5313,20 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
       <c r="M135" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -451,7 +451,7 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>66755.75173955667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.75</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>84238.41173955667</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,17 @@
         <v>66227.43173955668</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +642,19 @@
         <v>3391.203739556673</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.808999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,19 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.598000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,19 @@
         <v>3447.203739556673</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +765,19 @@
         <v>-88535.88326044333</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +806,19 @@
         <v>-88483.70146044332</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +847,19 @@
         <v>-450818.7002604433</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +891,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>-488481.9728604433</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.587999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +971,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1007,17 @@
         <v>-330963.5174604433</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1046,17 @@
         <v>-334783.5174604433</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1085,19 @@
         <v>-382075.7118604432</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1126,19 @@
         <v>-445669.7520604432</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.624000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1167,17 @@
         <v>-445565.7520604432</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,17 @@
         <v>-450500.7520604432</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1245,17 @@
         <v>-445513.7520604432</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1284,17 @@
         <v>-485866.9445604432</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1365,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1401,19 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9.689</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1442,19 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1522,19 @@
         <v>-551605.7769604432</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1566,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1605,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1644,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1683,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1722,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1761,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1839,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1878,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1917,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1953,19 @@
         <v>-803088.5241604431</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.622999999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1994,19 @@
         <v>-803036.0696604431</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.622999999999999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2035,19 @@
         <v>-749328.0033604432</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2076,19 @@
         <v>-734292.8443604432</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J43" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2120,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2159,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2237,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2276,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2354,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2393,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2507,19 @@
         <v>-252178.2833604432</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9.654999999999999</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2551,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2626,17 @@
         <v>-443097.3594604431</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>9.75</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,17 +2665,15 @@
         <v>-443392.5662604431</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9.779999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>9.56</v>
+        <v>9.75</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2348,11 +2708,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>9.56</v>
+        <v>9.75</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2383,15 +2743,17 @@
         <v>-443953.3175604431</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>9.75</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2426,11 +2788,11 @@
         <v>9.765000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2467,11 +2829,11 @@
         <v>9.76</v>
       </c>
       <c r="J62" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2506,7 +2868,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2545,7 +2907,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2584,7 +2946,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2623,7 +2985,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2662,7 +3024,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2701,7 +3063,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2740,7 +3102,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2779,7 +3141,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2818,7 +3180,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2857,7 +3219,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2896,7 +3258,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2935,7 +3297,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2974,7 +3336,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3013,7 +3375,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3052,7 +3414,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3091,7 +3453,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3130,7 +3492,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3169,7 +3531,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3208,7 +3570,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3247,7 +3609,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3286,7 +3648,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3325,7 +3687,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3364,7 +3726,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3403,7 +3765,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3442,7 +3804,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3481,7 +3843,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3520,7 +3882,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3559,7 +3921,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3598,7 +3960,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3637,7 +3999,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3676,7 +4038,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3715,7 +4077,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3754,7 +4116,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3793,7 +4155,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3832,7 +4194,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3867,19 +4229,19 @@
         <v>407109.2576373096</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>9.77</v>
+        <v>9.75</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>1.019615384615385</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3906,17 +4268,11 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3945,17 +4301,11 @@
         <v>527100.1377373096</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3984,17 +4334,11 @@
         <v>507330.1377373096</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4026,14 +4370,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4065,14 +4403,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4104,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4143,14 +4469,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4182,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4221,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4260,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4299,14 +4601,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4338,14 +4634,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4377,14 +4667,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4416,14 +4700,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4455,14 +4733,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4494,14 +4766,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4533,14 +4799,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4572,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4611,14 +4865,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4650,14 +4898,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4689,14 +4931,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4728,14 +4964,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4767,14 +4997,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4806,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4845,14 +5063,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4884,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4923,14 +5129,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4962,14 +5162,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5001,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5040,14 +5228,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5079,14 +5261,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5118,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5157,14 +5327,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5196,14 +5360,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5235,14 +5393,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5274,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5313,14 +5459,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest RNT.xlsx
+++ b/BackTest/2020-01-16 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>19575.98</v>
       </c>
       <c r="G2" t="n">
-        <v>66755.75173955667</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>4936</v>
       </c>
       <c r="G3" t="n">
-        <v>66755.75173955667</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>17482.66</v>
       </c>
       <c r="G4" t="n">
-        <v>84238.41173955667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>25877.93</v>
       </c>
       <c r="G5" t="n">
-        <v>84238.41173955667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,24 +563,15 @@
         <v>18010.98</v>
       </c>
       <c r="G6" t="n">
-        <v>66227.43173955668</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,26 +593,15 @@
         <v>62836.228</v>
       </c>
       <c r="G7" t="n">
-        <v>3391.203739556673</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.808999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,26 +623,19 @@
         <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>3447.203739556673</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>9.598000000000001</v>
       </c>
-      <c r="J8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -721,26 +657,21 @@
         <v>3415.51</v>
       </c>
       <c r="G9" t="n">
-        <v>3447.203739556673</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>9.598000000000001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,26 +693,21 @@
         <v>91983.087</v>
       </c>
       <c r="G10" t="n">
-        <v>-88535.88326044333</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>9.598000000000001</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,26 +729,15 @@
         <v>52.1818</v>
       </c>
       <c r="G11" t="n">
-        <v>-88483.70146044332</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,26 +759,15 @@
         <v>362334.9988</v>
       </c>
       <c r="G12" t="n">
-        <v>-450818.7002604433</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -885,24 +789,15 @@
         <v>37769.2726</v>
       </c>
       <c r="G13" t="n">
-        <v>-488587.9728604433</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +819,15 @@
         <v>106</v>
       </c>
       <c r="G14" t="n">
-        <v>-488481.9728604433</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.587999999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,24 +849,15 @@
         <v>3722.35</v>
       </c>
       <c r="G15" t="n">
-        <v>-492204.3228604433</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1004,24 +879,15 @@
         <v>161240.8054</v>
       </c>
       <c r="G16" t="n">
-        <v>-330963.5174604433</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1043,24 +909,15 @@
         <v>3820</v>
       </c>
       <c r="G17" t="n">
-        <v>-334783.5174604433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1082,26 +939,15 @@
         <v>47292.1944</v>
       </c>
       <c r="G18" t="n">
-        <v>-382075.7118604432</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1123,26 +969,15 @@
         <v>63594.0402</v>
       </c>
       <c r="G19" t="n">
-        <v>-445669.7520604432</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.624000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,24 +999,15 @@
         <v>104</v>
       </c>
       <c r="G20" t="n">
-        <v>-445565.7520604432</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1203,24 +1029,15 @@
         <v>4935</v>
       </c>
       <c r="G21" t="n">
-        <v>-450500.7520604432</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,24 +1059,15 @@
         <v>4987</v>
       </c>
       <c r="G22" t="n">
-        <v>-445513.7520604432</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1281,24 +1089,15 @@
         <v>40353.1925</v>
       </c>
       <c r="G23" t="n">
-        <v>-485866.9445604432</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1119,15 @@
         <v>104</v>
       </c>
       <c r="G24" t="n">
-        <v>-485762.9445604432</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1359,24 +1149,15 @@
         <v>53944.9824</v>
       </c>
       <c r="G25" t="n">
-        <v>-539707.9269604433</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1398,26 +1179,15 @@
         <v>11897.85</v>
       </c>
       <c r="G26" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.689</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1439,26 +1209,15 @@
         <v>287033.34</v>
       </c>
       <c r="G27" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1480,24 +1239,15 @@
         <v>3321.68</v>
       </c>
       <c r="G28" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1519,26 +1269,15 @@
         <v>9643.82</v>
       </c>
       <c r="G29" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1560,24 +1299,15 @@
         <v>14576.89</v>
       </c>
       <c r="G30" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1599,24 +1329,15 @@
         <v>4935</v>
       </c>
       <c r="G31" t="n">
-        <v>-551605.7769604432</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,24 +1359,15 @@
         <v>220126.4814</v>
       </c>
       <c r="G32" t="n">
-        <v>-771732.2583604432</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1677,24 +1389,15 @@
         <v>52</v>
       </c>
       <c r="G33" t="n">
-        <v>-771680.2583604432</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1716,24 +1419,15 @@
         <v>29663.6858</v>
       </c>
       <c r="G34" t="n">
-        <v>-801343.9441604431</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1755,24 +1449,15 @@
         <v>1796.58</v>
       </c>
       <c r="G35" t="n">
-        <v>-803140.5241604431</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1794,24 +1479,15 @@
         <v>2565.4713</v>
       </c>
       <c r="G36" t="n">
-        <v>-803140.5241604431</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1833,24 +1509,15 @@
         <v>52</v>
       </c>
       <c r="G37" t="n">
-        <v>-803088.5241604431</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,24 +1539,15 @@
         <v>14159.0094</v>
       </c>
       <c r="G38" t="n">
-        <v>-803088.5241604431</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1911,24 +1569,15 @@
         <v>4005.689</v>
       </c>
       <c r="G39" t="n">
-        <v>-803088.5241604431</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1950,26 +1599,15 @@
         <v>98023.2151</v>
       </c>
       <c r="G40" t="n">
-        <v>-803088.5241604431</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9.622999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1991,26 +1629,15 @@
         <v>52.4545</v>
       </c>
       <c r="G41" t="n">
-        <v>-803036.0696604431</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9.622999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,26 +1659,15 @@
         <v>53708.0663</v>
       </c>
       <c r="G42" t="n">
-        <v>-749328.0033604432</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2073,26 +1689,15 @@
         <v>15035.159</v>
       </c>
       <c r="G43" t="n">
-        <v>-734292.8443604432</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +1719,15 @@
         <v>72.9791</v>
       </c>
       <c r="G44" t="n">
-        <v>-734365.8234604432</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2153,24 +1749,15 @@
         <v>484480.8732</v>
       </c>
       <c r="G45" t="n">
-        <v>-249884.9502604432</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2192,24 +1779,15 @@
         <v>105.2827</v>
       </c>
       <c r="G46" t="n">
-        <v>-249884.9502604432</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2231,24 +1809,15 @@
         <v>7165.7825</v>
       </c>
       <c r="G47" t="n">
-        <v>-249884.9502604432</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,24 +1839,15 @@
         <v>2745.24</v>
       </c>
       <c r="G48" t="n">
-        <v>-249884.9502604432</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,24 +1869,15 @@
         <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>-249829.9502604432</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,24 +1899,15 @@
         <v>52.4455</v>
       </c>
       <c r="G50" t="n">
-        <v>-249829.9502604432</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,24 +1929,15 @@
         <v>38718.3206</v>
       </c>
       <c r="G51" t="n">
-        <v>-249829.9502604432</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,24 +1959,15 @@
         <v>449.438202247191</v>
       </c>
       <c r="G52" t="n">
-        <v>-249829.9502604432</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,24 +1989,15 @@
         <v>2455.2357</v>
       </c>
       <c r="G53" t="n">
-        <v>-252285.1859604432</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,26 +2019,15 @@
         <v>106.9026</v>
       </c>
       <c r="G54" t="n">
-        <v>-252178.2833604432</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9.654999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2545,24 +2049,15 @@
         <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>-252178.2833604432</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2584,24 +2079,15 @@
         <v>190971.2579</v>
       </c>
       <c r="G56" t="n">
-        <v>-443149.5412604432</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2623,24 +2109,15 @@
         <v>52.1818</v>
       </c>
       <c r="G57" t="n">
-        <v>-443097.3594604431</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2662,24 +2139,15 @@
         <v>295.2068</v>
       </c>
       <c r="G58" t="n">
-        <v>-443392.5662604431</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2701,24 +2169,15 @@
         <v>705.3993</v>
       </c>
       <c r="G59" t="n">
-        <v>-443392.5662604431</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2740,24 +2199,15 @@
         <v>560.7513</v>
       </c>
       <c r="G60" t="n">
-        <v>-443953.3175604431</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2779,26 +2229,15 @@
         <v>680.003</v>
       </c>
       <c r="G61" t="n">
-        <v>-444633.3205604432</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.765000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2820,26 +2259,15 @@
         <v>951189.6235977528</v>
       </c>
       <c r="G62" t="n">
-        <v>506556.3030373096</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2861,24 +2289,15 @@
         <v>4407.94</v>
       </c>
       <c r="G63" t="n">
-        <v>510964.2430373096</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,24 +2319,15 @@
         <v>52</v>
       </c>
       <c r="G64" t="n">
-        <v>511016.2430373096</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2939,24 +2349,15 @@
         <v>11108.8282</v>
       </c>
       <c r="G65" t="n">
-        <v>522125.0712373096</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2978,24 +2379,15 @@
         <v>3000</v>
       </c>
       <c r="G66" t="n">
-        <v>525125.0712373096</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3017,24 +2409,15 @@
         <v>7496</v>
       </c>
       <c r="G67" t="n">
-        <v>517629.0712373096</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3056,24 +2439,15 @@
         <v>103.4127</v>
       </c>
       <c r="G68" t="n">
-        <v>517629.0712373096</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3095,24 +2469,15 @@
         <v>4203.25</v>
       </c>
       <c r="G69" t="n">
-        <v>517629.0712373096</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3134,24 +2499,15 @@
         <v>52.8454</v>
       </c>
       <c r="G70" t="n">
-        <v>517681.9166373096</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3173,24 +2529,15 @@
         <v>6345.9376</v>
       </c>
       <c r="G71" t="n">
-        <v>517681.9166373096</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3212,24 +2559,15 @@
         <v>10213.2659</v>
       </c>
       <c r="G72" t="n">
-        <v>527895.1825373096</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3251,24 +2589,15 @@
         <v>4935</v>
       </c>
       <c r="G73" t="n">
-        <v>532830.1825373096</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3290,24 +2619,15 @@
         <v>7450.1536</v>
       </c>
       <c r="G74" t="n">
-        <v>540280.3361373096</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3329,24 +2649,15 @@
         <v>3424.84</v>
       </c>
       <c r="G75" t="n">
-        <v>540280.3361373096</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3368,24 +2679,15 @@
         <v>52.5555</v>
       </c>
       <c r="G76" t="n">
-        <v>540332.8916373096</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3407,24 +2709,15 @@
         <v>82.4444</v>
       </c>
       <c r="G77" t="n">
-        <v>540332.8916373096</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3446,24 +2739,15 @@
         <v>10087.5361</v>
       </c>
       <c r="G78" t="n">
-        <v>540332.8916373096</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3485,24 +2769,15 @@
         <v>208404.8023</v>
       </c>
       <c r="G79" t="n">
-        <v>331928.0893373096</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3524,24 +2799,15 @@
         <v>25677.4444</v>
       </c>
       <c r="G80" t="n">
-        <v>357605.5337373096</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3563,24 +2829,15 @@
         <v>3425.02</v>
       </c>
       <c r="G81" t="n">
-        <v>354180.5137373095</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3602,24 +2859,15 @@
         <v>13163.0388</v>
       </c>
       <c r="G82" t="n">
-        <v>354180.5137373095</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3641,24 +2889,15 @@
         <v>1997</v>
       </c>
       <c r="G83" t="n">
-        <v>352183.5137373095</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3680,24 +2919,19 @@
         <v>52</v>
       </c>
       <c r="G84" t="n">
-        <v>352235.5137373095</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>9.6</v>
+      </c>
+      <c r="I84" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3719,24 +2953,21 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>352235.5137373095</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3758,24 +2989,21 @@
         <v>3064.351378958121</v>
       </c>
       <c r="G86" t="n">
-        <v>352235.5137373095</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3797,24 +3025,15 @@
         <v>6212.16392104188</v>
       </c>
       <c r="G87" t="n">
-        <v>352235.5137373095</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3836,24 +3055,15 @@
         <v>52.2244</v>
       </c>
       <c r="G88" t="n">
-        <v>352287.7381373096</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3875,24 +3085,15 @@
         <v>82.4444</v>
       </c>
       <c r="G89" t="n">
-        <v>352287.7381373096</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3914,24 +3115,15 @@
         <v>41731.1728</v>
       </c>
       <c r="G90" t="n">
-        <v>352287.7381373096</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3953,24 +3145,19 @@
         <v>180</v>
       </c>
       <c r="G91" t="n">
-        <v>352467.7381373096</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3992,24 +3179,23 @@
         <v>6849.51</v>
       </c>
       <c r="G92" t="n">
-        <v>352467.7381373096</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>9.84</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4031,24 +3217,23 @@
         <v>47117.6895</v>
       </c>
       <c r="G93" t="n">
-        <v>399585.4276373095</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>9.84</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4070,24 +3255,23 @@
         <v>2603.83</v>
       </c>
       <c r="G94" t="n">
-        <v>402189.2576373096</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>9.9</v>
+      </c>
+      <c r="I94" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4109,24 +3293,21 @@
         <v>240</v>
       </c>
       <c r="G95" t="n">
-        <v>402189.2576373096</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4148,24 +3329,21 @@
         <v>10000</v>
       </c>
       <c r="G96" t="n">
-        <v>412189.2576373096</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4187,24 +3365,21 @@
         <v>5080</v>
       </c>
       <c r="G97" t="n">
-        <v>407109.2576373096</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4226,24 +3401,21 @@
         <v>170988.0526</v>
       </c>
       <c r="G98" t="n">
-        <v>407109.2576373096</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1.019615384615385</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4265,18 +3437,21 @@
         <v>119990.8801</v>
       </c>
       <c r="G99" t="n">
-        <v>527100.1377373096</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4298,18 +3473,21 @@
         <v>71500</v>
       </c>
       <c r="G100" t="n">
-        <v>527100.1377373096</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4331,18 +3509,21 @@
         <v>19770</v>
       </c>
       <c r="G101" t="n">
-        <v>507330.1377373096</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4364,18 +3545,21 @@
         <v>625</v>
       </c>
       <c r="G102" t="n">
-        <v>506705.1377373096</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4397,18 +3581,21 @@
         <v>181.0497</v>
       </c>
       <c r="G103" t="n">
-        <v>506886.1874373095</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4430,18 +3617,21 @@
         <v>150.1818</v>
       </c>
       <c r="G104" t="n">
-        <v>506886.1874373095</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4463,18 +3653,21 @@
         <v>396.8598</v>
       </c>
       <c r="G105" t="n">
-        <v>506489.3276373096</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4496,18 +3689,21 @@
         <v>55</v>
       </c>
       <c r="G106" t="n">
-        <v>506544.3276373096</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4529,18 +3725,21 @@
         <v>3295.94</v>
       </c>
       <c r="G107" t="n">
-        <v>503248.3876373096</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4562,18 +3761,21 @@
         <v>60</v>
       </c>
       <c r="G108" t="n">
-        <v>503308.3876373096</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4595,18 +3797,21 @@
         <v>120</v>
       </c>
       <c r="G109" t="n">
-        <v>503308.3876373096</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4628,18 +3833,21 @@
         <v>325610.6917</v>
       </c>
       <c r="G110" t="n">
-        <v>177697.6959373095</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4661,18 +3869,21 @@
         <v>15256.4633</v>
       </c>
       <c r="G111" t="n">
-        <v>162441.2326373095</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,18 +3905,21 @@
         <v>71237.4437</v>
       </c>
       <c r="G112" t="n">
-        <v>91203.78893730952</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4727,18 +3941,21 @@
         <v>936.9659</v>
       </c>
       <c r="G113" t="n">
-        <v>92140.75483730952</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4760,18 +3977,21 @@
         <v>6400.3496</v>
       </c>
       <c r="G114" t="n">
-        <v>85740.40523730952</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4793,18 +4013,21 @@
         <v>13599.6504</v>
       </c>
       <c r="G115" t="n">
-        <v>85740.40523730952</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4826,18 +4049,21 @@
         <v>60</v>
       </c>
       <c r="G116" t="n">
-        <v>85800.40523730952</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4859,18 +4085,21 @@
         <v>16748.5897</v>
       </c>
       <c r="G117" t="n">
-        <v>102548.9949373095</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4892,18 +4121,21 @@
         <v>13599.6504</v>
       </c>
       <c r="G118" t="n">
-        <v>88949.34453730952</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4925,18 +4157,21 @@
         <v>42545.6881</v>
       </c>
       <c r="G119" t="n">
-        <v>131495.0326373095</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4958,18 +4193,21 @@
         <v>10055</v>
       </c>
       <c r="G120" t="n">
-        <v>121440.0326373095</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4991,18 +4229,21 @@
         <v>92439.22440000001</v>
       </c>
       <c r="G121" t="n">
-        <v>29000.80823730951</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5024,18 +4265,21 @@
         <v>7872.6694</v>
       </c>
       <c r="G122" t="n">
-        <v>36873.47763730951</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5057,18 +4301,23 @@
         <v>75.4427</v>
       </c>
       <c r="G123" t="n">
-        <v>36873.47763730951</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>9.749000000000001</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5090,18 +4339,21 @@
         <v>15395.2509</v>
       </c>
       <c r="G124" t="n">
-        <v>21478.22673730951</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5123,18 +4375,21 @@
         <v>7817.6694</v>
       </c>
       <c r="G125" t="n">
-        <v>13660.55733730951</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5156,18 +4411,21 @@
         <v>52</v>
       </c>
       <c r="G126" t="n">
-        <v>13712.55733730951</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5189,18 +4447,21 @@
         <v>52</v>
       </c>
       <c r="G127" t="n">
-        <v>13712.55733730951</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5222,18 +4483,21 @@
         <v>1519.7682</v>
       </c>
       <c r="G128" t="n">
-        <v>12192.78913730951</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5255,18 +4519,21 @@
         <v>25000</v>
       </c>
       <c r="G129" t="n">
-        <v>37192.78913730951</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5288,18 +4555,21 @@
         <v>6440</v>
       </c>
       <c r="G130" t="n">
-        <v>43632.78913730951</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5321,18 +4591,21 @@
         <v>10578.3924</v>
       </c>
       <c r="G131" t="n">
-        <v>43632.78913730951</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5354,18 +4627,21 @@
         <v>45970.3599</v>
       </c>
       <c r="G132" t="n">
-        <v>89603.14903730951</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5387,18 +4663,21 @@
         <v>220</v>
       </c>
       <c r="G133" t="n">
-        <v>89823.14903730951</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5420,18 +4699,21 @@
         <v>2208.7135</v>
       </c>
       <c r="G134" t="n">
-        <v>87614.43553730952</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5453,18 +4735,21 @@
         <v>15956</v>
       </c>
       <c r="G135" t="n">
-        <v>103570.4355373095</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
